--- a/SchedulingData/dynamic10/pso/scheduling2_11.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling2_11.xlsx
@@ -462,363 +462,363 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>201</v>
+        <v>243.3</v>
       </c>
       <c r="D2" t="n">
-        <v>238.7</v>
+        <v>299.04</v>
       </c>
       <c r="E2" t="n">
-        <v>15.64</v>
+        <v>12.356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>231.58</v>
+        <v>162.9</v>
       </c>
       <c r="D3" t="n">
-        <v>276.06</v>
+        <v>211.22</v>
       </c>
       <c r="E3" t="n">
-        <v>13.064</v>
+        <v>17.388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>230.9</v>
+        <v>244.94</v>
       </c>
       <c r="D4" t="n">
-        <v>282.24</v>
+        <v>280.72</v>
       </c>
       <c r="E4" t="n">
-        <v>12.976</v>
+        <v>12.608</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>214.44</v>
+        <v>211.22</v>
       </c>
       <c r="D5" t="n">
-        <v>253.82</v>
+        <v>259.02</v>
       </c>
       <c r="E5" t="n">
-        <v>12.788</v>
+        <v>14.748</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>212.1</v>
+        <v>259.02</v>
       </c>
       <c r="D6" t="n">
-        <v>270.44</v>
+        <v>296.72</v>
       </c>
       <c r="E6" t="n">
-        <v>12.596</v>
+        <v>12.108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>270.44</v>
+        <v>250.34</v>
       </c>
       <c r="D7" t="n">
-        <v>317.34</v>
+        <v>311.48</v>
       </c>
       <c r="E7" t="n">
-        <v>10.516</v>
+        <v>10.492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>258.14</v>
+        <v>207.04</v>
       </c>
       <c r="D8" t="n">
-        <v>306.84</v>
+        <v>256.2</v>
       </c>
       <c r="E8" t="n">
-        <v>12.956</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>317.34</v>
+        <v>311.48</v>
       </c>
       <c r="D9" t="n">
-        <v>378.1</v>
+        <v>374.8</v>
       </c>
       <c r="E9" t="n">
-        <v>8.02</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>378.1</v>
+        <v>296.72</v>
       </c>
       <c r="D10" t="n">
-        <v>430.7</v>
+        <v>346.92</v>
       </c>
       <c r="E10" t="n">
-        <v>5.9</v>
+        <v>9.688000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>282.24</v>
+        <v>256.2</v>
       </c>
       <c r="D11" t="n">
-        <v>335.06</v>
+        <v>289.1</v>
       </c>
       <c r="E11" t="n">
-        <v>10.324</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>306.84</v>
+        <v>289.1</v>
       </c>
       <c r="D12" t="n">
-        <v>365.6</v>
+        <v>330.56</v>
       </c>
       <c r="E12" t="n">
-        <v>9.68</v>
+        <v>11.244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>365.6</v>
+        <v>330.56</v>
       </c>
       <c r="D13" t="n">
-        <v>423.72</v>
+        <v>379.76</v>
       </c>
       <c r="E13" t="n">
-        <v>6.488</v>
+        <v>7.944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>238.7</v>
+        <v>280.72</v>
       </c>
       <c r="D14" t="n">
-        <v>307.6</v>
+        <v>320.1</v>
       </c>
       <c r="E14" t="n">
-        <v>12.34</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>430.7</v>
+        <v>320.1</v>
       </c>
       <c r="D15" t="n">
-        <v>480.32</v>
+        <v>384.38</v>
       </c>
       <c r="E15" t="n">
-        <v>3.568</v>
+        <v>6.992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>253.82</v>
+        <v>379.76</v>
       </c>
       <c r="D16" t="n">
-        <v>304.62</v>
+        <v>439.06</v>
       </c>
       <c r="E16" t="n">
-        <v>9.827999999999999</v>
+        <v>4.644</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>307.6</v>
+        <v>235.96</v>
       </c>
       <c r="D17" t="n">
-        <v>369.04</v>
+        <v>309.36</v>
       </c>
       <c r="E17" t="n">
-        <v>9.316000000000001</v>
+        <v>9.744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>304.62</v>
+        <v>309.36</v>
       </c>
       <c r="D18" t="n">
-        <v>370.88</v>
+        <v>387.3</v>
       </c>
       <c r="E18" t="n">
-        <v>6.792</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>335.06</v>
+        <v>299.04</v>
       </c>
       <c r="D19" t="n">
-        <v>390.06</v>
+        <v>333.76</v>
       </c>
       <c r="E19" t="n">
-        <v>6.944</v>
+        <v>10.024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>370.88</v>
+        <v>333.76</v>
       </c>
       <c r="D20" t="n">
-        <v>419.54</v>
+        <v>376.58</v>
       </c>
       <c r="E20" t="n">
-        <v>4.036</v>
+        <v>7.372</v>
       </c>
     </row>
     <row r="21">
@@ -827,93 +827,93 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>369.04</v>
+        <v>439.06</v>
       </c>
       <c r="D21" t="n">
-        <v>413.34</v>
+        <v>526.0599999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>6.016</v>
+        <v>2.524</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>390.06</v>
+        <v>374.8</v>
       </c>
       <c r="D22" t="n">
-        <v>451.88</v>
+        <v>409.52</v>
       </c>
       <c r="E22" t="n">
-        <v>4.352</v>
+        <v>4.968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>276.06</v>
+        <v>346.92</v>
       </c>
       <c r="D23" t="n">
-        <v>330.48</v>
+        <v>432.58</v>
       </c>
       <c r="E23" t="n">
-        <v>10.732</v>
+        <v>7.192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>330.48</v>
+        <v>376.58</v>
       </c>
       <c r="D24" t="n">
-        <v>375.88</v>
+        <v>431.64</v>
       </c>
       <c r="E24" t="n">
-        <v>8.311999999999999</v>
+        <v>4.996</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>451.88</v>
+        <v>431.64</v>
       </c>
       <c r="D25" t="n">
-        <v>489.78</v>
+        <v>478.54</v>
       </c>
       <c r="E25" t="n">
-        <v>2.192</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="26">
@@ -922,55 +922,55 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>375.88</v>
+        <v>384.38</v>
       </c>
       <c r="D26" t="n">
-        <v>446.36</v>
+        <v>443.08</v>
       </c>
       <c r="E26" t="n">
-        <v>5.864</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>423.72</v>
+        <v>432.58</v>
       </c>
       <c r="D27" t="n">
-        <v>462.06</v>
+        <v>489.4</v>
       </c>
       <c r="E27" t="n">
-        <v>3.784</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>413.34</v>
+        <v>387.3</v>
       </c>
       <c r="D28" t="n">
-        <v>458.2</v>
+        <v>431.06</v>
       </c>
       <c r="E28" t="n">
-        <v>3.64</v>
+        <v>4.284</v>
       </c>
     </row>
   </sheetData>
